--- a/database/industries/foroushgah/ofogh/product/yearly_seprated.xlsx
+++ b/database/industries/foroushgah/ofogh/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\foroushgah\ofogh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A7A91A-5831-4E3A-A1B8-025A03B4EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +377,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -388,7 +389,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -435,6 +436,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -470,6 +488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,7 +656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/foroushgah/ofogh/product/yearly_seprated.xlsx
+++ b/database/industries/foroushgah/ofogh/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A7A91A-5831-4E3A-A1B8-025A03B4EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E97481-207C-4672-B564-88D5233EE58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -661,12 +661,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -676,7 +676,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -710,7 +710,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -744,7 +744,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -776,7 +776,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -812,7 +812,7 @@
         <v>1473973</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -836,7 +836,7 @@
         <v>159500705</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -860,7 +860,7 @@
         <v>219461937</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -884,7 +884,7 @@
         <v>744670893</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -956,7 +956,7 @@
         <v>29516590</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -980,7 +980,7 @@
         <v>360433325</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>179558252</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1694618556</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>26</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>27</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>29</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>1694618556</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1172,7 +1172,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1192,7 +1192,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1224,7 +1224,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>297648</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>14177856</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>48223515</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>16</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>109244704</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>4981818</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>18</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>19</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>4468310</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>20</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>55774259</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>50883</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>237218993</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>34</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>24</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>26</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>29</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>30</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>237218993</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1622,7 +1622,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1632,7 +1632,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1642,7 +1642,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1674,7 +1674,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>37</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>11</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>201936</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>14</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>88889</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>219735</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>146702</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>17</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>1729197501</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>18</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>151383</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>154742</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>21</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1922,7 +1922,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1932,7 +1932,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1964,7 +1964,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>40</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>11</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>14</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>-9665736</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>15</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>-38864994</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>16</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>-89729165</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>-4041728</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>18</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>-2836491</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>20</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>-47146514</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>-48738</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>41</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>-192333366</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>42</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>43</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>44</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>45</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>27</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="18" t="s">
         <v>29</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>30</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>-192333366</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2362,7 +2362,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2372,7 +2372,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2382,7 +2382,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>46</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2414,7 +2414,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>47</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>11</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>297648</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>14</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>4512120</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>15</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>9358521</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>16</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>19515539</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>17</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>940090</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>18</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>19</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>1631819</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>20</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>8627745</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>21</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>48</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>44885627</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>49</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>50</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="16" t="s">
         <v>51</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>52</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>30</v>
       </c>
